--- a/excel/collective/zestawy_dla_uczniow/zestaw_039.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_039.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
   <si>
     <t>ZESTAW ZADAŃ NR 39 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Maja Wilk</t>
-  </si>
-  <si>
-    <t>Adam Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Antoni Kowalczyk</t>
-  </si>
-  <si>
-    <t>Kacper Kaczmarek</t>
-  </si>
-  <si>
-    <t>Jan Krawczyk</t>
+    <t>Zuzanna Rogalska</t>
+  </si>
+  <si>
+    <t>Amelia Sikorska</t>
+  </si>
+  <si>
+    <t>Wojciech Lewandowski</t>
+  </si>
+  <si>
+    <t>Lena Górska</t>
+  </si>
+  <si>
+    <t>Zuzanna Sadowska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,16 +160,22 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>2,20</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,70</t>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>6,40</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>5,50</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>2,10</t>
   </si>
   <si>
     <t>Zeszyt 60 kartek</t>
@@ -181,19 +187,13 @@
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>9,50</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,60</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>6,60</t>
+    <t>13,00</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>0,80</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>4,13</t>
+    <t>1,67</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>5,36</t>
+    <t>12,68</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>14,94</t>
+    <t>21,42</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>2,94</t>
+    <t>12,14</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>17,99</t>
+    <t>28,90</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>20,57</t>
-  </si>
-  <si>
-    <t>9,08</t>
-  </si>
-  <si>
-    <t>6,81</t>
-  </si>
-  <si>
-    <t>12,90</t>
-  </si>
-  <si>
-    <t>21,15</t>
+    <t>16,04</t>
+  </si>
+  <si>
+    <t>16,59</t>
+  </si>
+  <si>
+    <t>1,56</t>
+  </si>
+  <si>
+    <t>5,87</t>
+  </si>
+  <si>
+    <t>22,65</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>25,83</t>
-  </si>
-  <si>
-    <t>30,90</t>
-  </si>
-  <si>
-    <t>19,81</t>
-  </si>
-  <si>
-    <t>13,74</t>
-  </si>
-  <si>
-    <t>17,91</t>
+    <t>19,00</t>
+  </si>
+  <si>
+    <t>2,53</t>
+  </si>
+  <si>
+    <t>12,59</t>
+  </si>
+  <si>
+    <t>10,82</t>
+  </si>
+  <si>
+    <t>14,91</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,34 +340,37 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
+    <t>Jakub</t>
   </si>
   <si>
     <t>Wójcik</t>
   </si>
   <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Sadowska</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
     <t>Filip</t>
   </si>
   <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
+    <t>Wojciechowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -403,121 +406,130 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Emilia Zawadzka</t>
-  </si>
-  <si>
-    <t>13.11.1998</t>
-  </si>
-  <si>
-    <t>5 001,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>04.06.1985</t>
-  </si>
-  <si>
-    <t>6 482,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Wójcik</t>
-  </si>
-  <si>
-    <t>25.08.1996</t>
-  </si>
-  <si>
-    <t>3 185,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Wójcik</t>
-  </si>
-  <si>
-    <t>12.03.1977</t>
-  </si>
-  <si>
-    <t>5 887,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Górska</t>
-  </si>
-  <si>
-    <t>05.02.1999</t>
-  </si>
-  <si>
-    <t>10 374,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Bednarska</t>
-  </si>
-  <si>
-    <t>02.01.2002</t>
-  </si>
-  <si>
-    <t>9 212,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Lewandowski</t>
-  </si>
-  <si>
-    <t>27.08.1999</t>
-  </si>
-  <si>
-    <t>12 990,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Piotrowski</t>
-  </si>
-  <si>
-    <t>01.05.2005</t>
-  </si>
-  <si>
-    <t>10 112,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Zawadzka</t>
-  </si>
-  <si>
-    <t>04.05.1983</t>
-  </si>
-  <si>
-    <t>4 253,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Rogalska</t>
-  </si>
-  <si>
-    <t>12.01.1988</t>
-  </si>
-  <si>
-    <t>14 788,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Kwiatkowski</t>
-  </si>
-  <si>
-    <t>13.07.1989</t>
-  </si>
-  <si>
-    <t>3 707,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Lis</t>
-  </si>
-  <si>
-    <t>13.09.1997</t>
-  </si>
-  <si>
-    <t>4 794,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Jaworska</t>
-  </si>
-  <si>
-    <t>10.05.1987</t>
-  </si>
-  <si>
-    <t>7 514,00 zł</t>
+    <t>Szymon Wiśniewski</t>
+  </si>
+  <si>
+    <t>09.08.1979</t>
+  </si>
+  <si>
+    <t>7 148,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kaczmarek</t>
+  </si>
+  <si>
+    <t>06.11.1998</t>
+  </si>
+  <si>
+    <t>11 096,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Nowak</t>
+  </si>
+  <si>
+    <t>02.07.2002</t>
+  </si>
+  <si>
+    <t>13 263,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Kamiński</t>
+  </si>
+  <si>
+    <t>16.01.1995</t>
+  </si>
+  <si>
+    <t>3 122,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Woźniak</t>
+  </si>
+  <si>
+    <t>02.10.2000</t>
+  </si>
+  <si>
+    <t>4 662,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Wójcik</t>
+  </si>
+  <si>
+    <t>07.10.1998</t>
+  </si>
+  <si>
+    <t>9 501,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>03.06.1984</t>
+  </si>
+  <si>
+    <t>13 763,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Kubiak</t>
+  </si>
+  <si>
+    <t>19.05.1990</t>
+  </si>
+  <si>
+    <t>3 930,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Borkowska</t>
+  </si>
+  <si>
+    <t>24.09.1992</t>
+  </si>
+  <si>
+    <t>12 580,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Kamiński</t>
+  </si>
+  <si>
+    <t>12.08.2002</t>
+  </si>
+  <si>
+    <t>6 375,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Malinowska</t>
+  </si>
+  <si>
+    <t>16.11.1984</t>
+  </si>
+  <si>
+    <t>4 126,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Krawczyk</t>
+  </si>
+  <si>
+    <t>21.10.1999</t>
+  </si>
+  <si>
+    <t>11 284,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Krawczyk</t>
+  </si>
+  <si>
+    <t>05.01.1998</t>
+  </si>
+  <si>
+    <t>3 281,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Wojciechowski</t>
+  </si>
+  <si>
+    <t>01.10.2004</t>
+  </si>
+  <si>
+    <t>14 347,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -589,292 +601,310 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 086,00 zł</t>
+  </si>
+  <si>
+    <t>1 477,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 419,00 zł</t>
+  </si>
+  <si>
+    <t>1 916,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>624,00 zł</t>
+  </si>
+  <si>
+    <t>792,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>513,00 zł</t>
+  </si>
+  <si>
+    <t>590,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 330,00 zł</t>
+  </si>
+  <si>
+    <t>1 716,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>884,00 zł</t>
+  </si>
+  <si>
+    <t>1 220,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>1 067,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 223,00 zł</t>
+  </si>
+  <si>
+    <t>1 541,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 340,00 zł</t>
+  </si>
+  <si>
+    <t>1 581,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>735,00 zł</t>
+  </si>
+  <si>
+    <t>948,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>1 301,00 zł</t>
+  </si>
+  <si>
+    <t>1 743,00 zł</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 047,00 zł</t>
+  </si>
+  <si>
+    <t>1 434,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>965,00 zł</t>
+  </si>
+  <si>
+    <t>1 332,00 zł</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>1 338,00 zł</t>
+  </si>
+  <si>
+    <t>1 619,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>625,00 zł</t>
+  </si>
+  <si>
+    <t>731,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 138,00 zł</t>
+  </si>
+  <si>
+    <t>1 559,00 zł</t>
+  </si>
+  <si>
+    <t>718,00 zł</t>
+  </si>
+  <si>
+    <t>926,00 zł</t>
+  </si>
+  <si>
+    <t>1 151,00 zł</t>
+  </si>
+  <si>
+    <t>1 600,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
   </si>
   <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 112,00 zł</t>
-  </si>
-  <si>
-    <t>1 423,00 zł</t>
+    <t>1 049,00 zł</t>
+  </si>
+  <si>
+    <t>1 290,00 zł</t>
   </si>
   <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 253,00 zł</t>
-  </si>
-  <si>
-    <t>1 391,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>1 462,00 zł</t>
-  </si>
-  <si>
-    <t>1 652,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 111,00 zł</t>
-  </si>
-  <si>
-    <t>1 311,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
+    <t>1 187,00 zł</t>
+  </si>
+  <si>
+    <t>1 353,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>1 333,00 zł</t>
+  </si>
+  <si>
+    <t>1 506,00 zł</t>
+  </si>
+  <si>
+    <t>696,00 zł</t>
+  </si>
+  <si>
+    <t>898,00 zł</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>1 286,00 zł</t>
+  </si>
+  <si>
+    <t>1 453,00 zł</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 281,00 zł</t>
-  </si>
-  <si>
-    <t>1 729,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 159,00 zł</t>
-  </si>
-  <si>
-    <t>1 599,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 257,00 zł</t>
-  </si>
-  <si>
-    <t>1 420,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>1 347,00 zł</t>
-  </si>
-  <si>
-    <t>1 711,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>700,00 zł</t>
-  </si>
-  <si>
-    <t>980,00 zł</t>
-  </si>
-  <si>
-    <t>1 262,00 zł</t>
-  </si>
-  <si>
-    <t>1 754,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 493,00 zł</t>
-  </si>
-  <si>
-    <t>2 030,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 331,00 zł</t>
-  </si>
-  <si>
-    <t>1 744,00 zł</t>
-  </si>
-  <si>
-    <t>1 048,00 zł</t>
-  </si>
-  <si>
-    <t>1 184,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
+    <t>1 080,00 zł</t>
+  </si>
+  <si>
+    <t>1 426,00 zł</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 205,00 zł</t>
+  </si>
+  <si>
+    <t>1 350,00 zł</t>
+  </si>
+  <si>
+    <t>637,00 zł</t>
+  </si>
+  <si>
+    <t>885,00 zł</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>822,00 zł</t>
+  </si>
+  <si>
+    <t>1 118,00 zł</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>619,00 zł</t>
-  </si>
-  <si>
-    <t>681,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>1 019,00 zł</t>
-  </si>
-  <si>
-    <t>1 416,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>1 158,00 zł</t>
-  </si>
-  <si>
-    <t>1 621,00 zł</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>722,00 zł</t>
-  </si>
-  <si>
-    <t>975,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>1 072,00 zł</t>
-  </si>
-  <si>
-    <t>1 286,00 zł</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 287,00 zł</t>
-  </si>
-  <si>
-    <t>1 737,00 zł</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>534,00 zł</t>
-  </si>
-  <si>
-    <t>689,00 zł</t>
-  </si>
-  <si>
-    <t>1 246,00 zł</t>
-  </si>
-  <si>
-    <t>1 533,00 zł</t>
-  </si>
-  <si>
-    <t>1 073,00 zł</t>
-  </si>
-  <si>
-    <t>1 363,00 zł</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 229,00 zł</t>
-  </si>
-  <si>
-    <t>1 647,00 zł</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>742,00 zł</t>
-  </si>
-  <si>
-    <t>1 024,00 zł</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>902,00 zł</t>
-  </si>
-  <si>
-    <t>1 082,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>1 336,00 zł</t>
-  </si>
-  <si>
-    <t>1 683,00 zł</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 441,00 zł</t>
-  </si>
-  <si>
-    <t>1 989,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1431,19 +1461,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1452,16 +1482,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>6</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -1473,7 +1503,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
         <v>6</v>
@@ -1482,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
@@ -1497,16 +1527,16 @@
         <v>6</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>6</v>
-      </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1515,19 +1545,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3</v>
-      </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1536,19 +1566,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1557,19 +1587,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
         <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1578,19 +1608,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1599,19 +1629,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
         <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1623,16 +1653,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>6</v>
       </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4</v>
-      </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1644,16 +1674,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
         <v>5</v>
       </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1662,19 +1692,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>6</v>
-      </c>
       <c r="D28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1811,7 +1841,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1826,7 +1856,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1841,7 +1871,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1856,7 +1886,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1871,7 +1901,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1988,7 +2018,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2000,7 +2030,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2012,7 +2042,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2024,7 +2054,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2036,7 +2066,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2084,7 +2114,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2096,7 +2126,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2108,7 +2138,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2120,7 +2150,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2132,7 +2162,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2180,7 +2210,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2192,7 +2222,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2204,7 +2234,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2216,7 +2246,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2228,7 +2258,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2262,10 +2292,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A19" sqref="A19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2371,25 +2401,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
         <v>6</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2403,22 +2433,22 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
       <c r="I13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
         <v>2</v>
@@ -2435,22 +2465,22 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
-      </c>
       <c r="H14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>3</v>
@@ -2470,22 +2500,22 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
         <v>6</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2493,50 +2523,66 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
         <v>4</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3">
-        <v>4</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
@@ -2554,11 +2600,27 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2571,10 +2633,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2586,7 +2648,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2596,210 +2658,221 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2909,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2846,75 +2919,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2922,22 +2995,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2945,22 +3018,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2968,22 +3041,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2991,22 +3064,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3014,22 +3087,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3037,22 +3110,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3060,22 +3133,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3083,22 +3156,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3106,22 +3179,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3129,22 +3202,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3152,22 +3225,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3175,22 +3248,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3198,22 +3271,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3221,22 +3294,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3244,22 +3317,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3267,22 +3340,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3290,22 +3363,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3313,22 +3386,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3336,22 +3409,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3359,22 +3432,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3382,22 +3455,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3405,22 +3478,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3428,22 +3501,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3451,22 +3524,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3474,22 +3547,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3497,22 +3570,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3520,67 +3593,67 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_039.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_039.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>ZESTAW ZADAŃ NR 39 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 39 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>6,40</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>5,50</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,10</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>4,40</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>13,00</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>0,80</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>1,67</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>12,68</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>21,42</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>12,14</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>28,90</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>16,04</t>
-  </si>
-  <si>
-    <t>16,59</t>
-  </si>
-  <si>
-    <t>1,56</t>
-  </si>
-  <si>
-    <t>5,87</t>
-  </si>
-  <si>
-    <t>22,65</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>19,00</t>
-  </si>
-  <si>
-    <t>2,53</t>
-  </si>
-  <si>
-    <t>12,59</t>
-  </si>
-  <si>
-    <t>10,82</t>
-  </si>
-  <si>
-    <t>14,91</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -412,126 +334,84 @@
     <t>09.08.1979</t>
   </si>
   <si>
-    <t>7 148,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kaczmarek</t>
   </si>
   <si>
     <t>06.11.1998</t>
   </si>
   <si>
-    <t>11 096,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Nowak</t>
   </si>
   <si>
     <t>02.07.2002</t>
   </si>
   <si>
-    <t>13 263,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Kamiński</t>
   </si>
   <si>
     <t>16.01.1995</t>
   </si>
   <si>
-    <t>3 122,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Woźniak</t>
   </si>
   <si>
     <t>02.10.2000</t>
   </si>
   <si>
-    <t>4 662,00 zł</t>
-  </si>
-  <si>
     <t>Adam Wójcik</t>
   </si>
   <si>
     <t>07.10.1998</t>
   </si>
   <si>
-    <t>9 501,00 zł</t>
-  </si>
-  <si>
     <t>Anna Kaźmierczak</t>
   </si>
   <si>
     <t>03.06.1984</t>
   </si>
   <si>
-    <t>13 763,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Kubiak</t>
   </si>
   <si>
     <t>19.05.1990</t>
   </si>
   <si>
-    <t>3 930,00 zł</t>
-  </si>
-  <si>
     <t>Maja Borkowska</t>
   </si>
   <si>
     <t>24.09.1992</t>
   </si>
   <si>
-    <t>12 580,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Kamiński</t>
   </si>
   <si>
     <t>12.08.2002</t>
   </si>
   <si>
-    <t>6 375,00 zł</t>
-  </si>
-  <si>
     <t>Anna Malinowska</t>
   </si>
   <si>
     <t>16.11.1984</t>
   </si>
   <si>
-    <t>4 126,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Krawczyk</t>
   </si>
   <si>
     <t>21.10.1999</t>
   </si>
   <si>
-    <t>11 284,00 zł</t>
-  </si>
-  <si>
     <t>Filip Krawczyk</t>
   </si>
   <si>
     <t>05.01.1998</t>
   </si>
   <si>
-    <t>3 281,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Wojciechowski</t>
   </si>
   <si>
     <t>01.10.2004</t>
   </si>
   <si>
-    <t>14 347,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -544,9 +424,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -607,12 +484,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 086,00 zł</t>
-  </si>
-  <si>
-    <t>1 477,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -625,12 +496,6 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 419,00 zł</t>
-  </si>
-  <si>
-    <t>1 916,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -643,24 +508,12 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>624,00 zł</t>
-  </si>
-  <si>
-    <t>792,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>513,00 zł</t>
-  </si>
-  <si>
-    <t>590,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -673,12 +526,6 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 330,00 zł</t>
-  </si>
-  <si>
-    <t>1 716,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -688,30 +535,15 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>884,00 zł</t>
-  </si>
-  <si>
-    <t>1 220,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>1 067,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 223,00 zł</t>
-  </si>
-  <si>
-    <t>1 541,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -721,12 +553,6 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>1 581,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -736,12 +562,6 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>735,00 zł</t>
-  </si>
-  <si>
-    <t>948,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -751,54 +571,24 @@
     <t>maj</t>
   </si>
   <si>
-    <t>1 301,00 zł</t>
-  </si>
-  <si>
-    <t>1 743,00 zł</t>
-  </si>
-  <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 047,00 zł</t>
-  </si>
-  <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>965,00 zł</t>
-  </si>
-  <si>
-    <t>1 332,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>1 338,00 zł</t>
-  </si>
-  <si>
-    <t>1 619,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>625,00 zł</t>
-  </si>
-  <si>
-    <t>731,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -808,100 +598,28 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 138,00 zł</t>
-  </si>
-  <si>
-    <t>1 559,00 zł</t>
-  </si>
-  <si>
-    <t>718,00 zł</t>
-  </si>
-  <si>
-    <t>926,00 zł</t>
-  </si>
-  <si>
-    <t>1 151,00 zł</t>
-  </si>
-  <si>
-    <t>1 600,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 049,00 zł</t>
-  </si>
-  <si>
-    <t>1 290,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>1 187,00 zł</t>
-  </si>
-  <si>
-    <t>1 353,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>1 333,00 zł</t>
-  </si>
-  <si>
-    <t>1 506,00 zł</t>
-  </si>
-  <si>
-    <t>696,00 zł</t>
-  </si>
-  <si>
-    <t>898,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>1 286,00 zł</t>
-  </si>
-  <si>
-    <t>1 453,00 zł</t>
-  </si>
-  <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 080,00 zł</t>
-  </si>
-  <si>
-    <t>1 426,00 zł</t>
-  </si>
-  <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 205,00 zł</t>
-  </si>
-  <si>
-    <t>1 350,00 zł</t>
-  </si>
-  <si>
-    <t>637,00 zł</t>
-  </si>
-  <si>
-    <t>885,00 zł</t>
-  </si>
-  <si>
     <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>822,00 zł</t>
-  </si>
-  <si>
-    <t>1 118,00 zł</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
@@ -926,7 +644,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -983,14 +703,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1001,8 +721,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1033,30 +753,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1359,7 +1080,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1434,25 +1155,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1475,7 +1196,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1496,7 +1217,7 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1517,7 +1238,7 @@
       <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1538,7 +1259,7 @@
       <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1559,7 +1280,7 @@
       <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1580,7 +1301,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1601,7 +1322,7 @@
       <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1622,7 +1343,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1643,7 +1364,7 @@
       <c r="F25" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1664,7 +1385,7 @@
       <c r="F26" s="3">
         <v>6</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1685,7 +1406,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1706,27 +1427,17 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1760,7 +1471,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1780,7 +1491,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1790,29 +1501,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1820,99 +1531,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6.4</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5.5</v>
       </c>
       <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.1</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.4</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>13</v>
       </c>
       <c r="D17" s="3">
         <v>8</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.8</v>
       </c>
       <c r="D18" s="3">
         <v>10</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1945,7 +1656,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1970,113 +1681,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1.67</v>
       </c>
       <c r="C15" s="3">
         <v>6</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>12.68</v>
       </c>
       <c r="C16" s="3">
         <v>36</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>21.42</v>
       </c>
       <c r="C17" s="3">
         <v>40</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>12.14</v>
       </c>
       <c r="C18" s="3">
         <v>7</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>28.9</v>
       </c>
       <c r="C19" s="3">
         <v>33</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2085,94 +1796,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>16.039999999999999</v>
       </c>
       <c r="C24" s="3">
         <v>7</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>16.59</v>
       </c>
       <c r="C25" s="3">
         <v>26</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1.56</v>
       </c>
       <c r="C26" s="3">
         <v>6</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>5.87</v>
       </c>
       <c r="C27" s="3">
         <v>40</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>22.65</v>
       </c>
       <c r="C28" s="3">
         <v>47</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2181,98 +1892,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>19</v>
       </c>
       <c r="C33" s="3">
         <v>24</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2.53</v>
       </c>
       <c r="C34" s="3">
         <v>22</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>12.59</v>
       </c>
       <c r="C35" s="3">
         <v>40</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>10.82</v>
       </c>
       <c r="C36" s="3">
         <v>30</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>14.91</v>
       </c>
       <c r="C37" s="3">
         <v>23</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2295,7 +2006,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2315,90 +2026,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -2421,16 +2132,16 @@
       <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2453,16 +2164,16 @@
       <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
@@ -2485,16 +2196,16 @@
       <c r="J14" s="3">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
@@ -2517,16 +2228,16 @@
       <c r="J15" s="3">
         <v>6</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -2549,16 +2260,16 @@
       <c r="J16" s="3">
         <v>4</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -2581,40 +2292,40 @@
       <c r="J17" s="3">
         <v>6</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2647,233 +2358,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>119</v>
+      <c r="A1" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>127</v>
+      <c r="A10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7148</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11096</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
+      </c>
+      <c r="C13" s="7">
+        <v>13263</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>109</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>111</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4662</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>113</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9501</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>115</v>
+      </c>
+      <c r="C17" s="7">
+        <v>13763</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3930</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
+      </c>
+      <c r="C19" s="7">
+        <v>12580</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>157</v>
+        <v>121</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6375</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>160</v>
+        <v>123</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4126</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
+      </c>
+      <c r="C22" s="7">
+        <v>11284</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>166</v>
+        <v>127</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3281</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>169</v>
+        <v>129</v>
+      </c>
+      <c r="C24" s="7">
+        <v>14347</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>170</v>
+      <c r="A27" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2908,86 +2613,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>175</v>
+      <c r="A1" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>192</v>
+      <c r="A15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2995,22 +2700,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1086</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1477</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3018,22 +2723,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1419</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1916</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3041,22 +2746,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
+      </c>
+      <c r="D18" s="7">
+        <v>624</v>
+      </c>
+      <c r="E18" s="7">
+        <v>792</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3064,22 +2769,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
+      </c>
+      <c r="D19" s="7">
+        <v>513</v>
+      </c>
+      <c r="E19" s="7">
+        <v>590</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3087,22 +2792,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>218</v>
+        <v>167</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1330</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1716</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3110,22 +2815,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
+      </c>
+      <c r="D21" s="7">
+        <v>884</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1220</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3133,22 +2838,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>201</v>
+        <v>161</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1067</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1419</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3156,22 +2861,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>173</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1223</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1541</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3179,22 +2884,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1340</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1581</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3202,22 +2907,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
+      </c>
+      <c r="D25" s="7">
+        <v>735</v>
+      </c>
+      <c r="E25" s="7">
+        <v>948</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3225,22 +2930,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>244</v>
+        <v>161</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1301</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1743</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3248,22 +2953,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>248</v>
+        <v>184</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1047</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1434</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3271,22 +2976,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>252</v>
+        <v>186</v>
+      </c>
+      <c r="D28" s="7">
+        <v>965</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1332</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3294,22 +2999,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>255</v>
+        <v>167</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1338</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1619</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3317,22 +3022,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>258</v>
+        <v>173</v>
+      </c>
+      <c r="D30" s="7">
+        <v>625</v>
+      </c>
+      <c r="E30" s="7">
+        <v>731</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3340,22 +3045,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>263</v>
+        <v>191</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1138</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1559</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3363,22 +3068,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>265</v>
+        <v>167</v>
+      </c>
+      <c r="D32" s="7">
+        <v>718</v>
+      </c>
+      <c r="E32" s="7">
+        <v>926</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3386,22 +3091,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>267</v>
+        <v>157</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1151</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1600</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3409,22 +3114,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>271</v>
+        <v>193</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1049</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1290</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3432,22 +3137,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>274</v>
+        <v>161</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1187</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1353</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>275</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3455,22 +3160,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>277</v>
+        <v>170</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1333</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1506</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3478,22 +3183,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>279</v>
+        <v>173</v>
+      </c>
+      <c r="D37" s="7">
+        <v>696</v>
+      </c>
+      <c r="E37" s="7">
+        <v>898</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3501,22 +3206,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>282</v>
+        <v>170</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1286</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1453</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3524,22 +3229,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>285</v>
+        <v>197</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1080</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1426</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3547,22 +3252,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>288</v>
+        <v>198</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1205</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1350</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3570,22 +3275,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>290</v>
+        <v>153</v>
+      </c>
+      <c r="D41" s="7">
+        <v>637</v>
+      </c>
+      <c r="E41" s="7">
+        <v>885</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3593,68 +3298,58 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>293</v>
+      <c r="D42" s="7">
+        <v>822</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1118</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>170</v>
+      <c r="A45" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>295</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>296</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>297</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>298</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>299</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_039.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_039.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>ZESTAW ZADAŃ NR 39 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Zuzanna Rogalska</t>
-  </si>
-  <si>
-    <t>Amelia Sikorska</t>
-  </si>
-  <si>
-    <t>Wojciech Lewandowski</t>
-  </si>
-  <si>
-    <t>Lena Górska</t>
-  </si>
-  <si>
-    <t>Zuzanna Sadowska</t>
+    <t>Filip Grabowski</t>
+  </si>
+  <si>
+    <t>Natalia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Szymon Wójcik</t>
+  </si>
+  <si>
+    <t>Anna Maciejewska</t>
+  </si>
+  <si>
+    <t>Mikołaj Kamiński</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 39 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,22 +149,22 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
+    <t>Temperówka</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,42 +266,39 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Woźniak</t>
   </si>
   <si>
     <t>Jakub</t>
   </si>
   <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Sadowska</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
     <t>Wojciechowski</t>
   </si>
   <si>
+    <t>Bednarska</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
     <t>Średnia przedmiotu:</t>
   </si>
   <si>
@@ -328,103 +332,124 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Szymon Wiśniewski</t>
-  </si>
-  <si>
-    <t>09.08.1979</t>
-  </si>
-  <si>
-    <t>Aleksander Kaczmarek</t>
-  </si>
-  <si>
-    <t>06.11.1998</t>
-  </si>
-  <si>
-    <t>Szymon Nowak</t>
-  </si>
-  <si>
-    <t>02.07.2002</t>
-  </si>
-  <si>
-    <t>Kacper Kamiński</t>
-  </si>
-  <si>
-    <t>16.01.1995</t>
-  </si>
-  <si>
-    <t>Wojciech Woźniak</t>
-  </si>
-  <si>
-    <t>02.10.2000</t>
-  </si>
-  <si>
-    <t>Adam Wójcik</t>
-  </si>
-  <si>
-    <t>07.10.1998</t>
-  </si>
-  <si>
-    <t>Anna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>03.06.1984</t>
-  </si>
-  <si>
-    <t>Hanna Kubiak</t>
-  </si>
-  <si>
-    <t>19.05.1990</t>
-  </si>
-  <si>
-    <t>Maja Borkowska</t>
-  </si>
-  <si>
-    <t>24.09.1992</t>
-  </si>
-  <si>
-    <t>Antoni Kamiński</t>
-  </si>
-  <si>
-    <t>12.08.2002</t>
+    <t>Aleksander Zieliński</t>
+  </si>
+  <si>
+    <t>Anna Rogalska</t>
+  </si>
+  <si>
+    <t>Zuzanna Górska</t>
+  </si>
+  <si>
+    <t>Wojciech Kozłowski</t>
+  </si>
+  <si>
+    <t>Julia Król</t>
+  </si>
+  <si>
+    <t>Szymon Grabowski</t>
+  </si>
+  <si>
+    <t>Anna Wójcik</t>
+  </si>
+  <si>
+    <t>Anna Olszewska</t>
+  </si>
+  <si>
+    <t>Mikołaj Grabowski</t>
+  </si>
+  <si>
+    <t>Maja Zawadzka</t>
+  </si>
+  <si>
+    <t>Oliwia Borkowska</t>
+  </si>
+  <si>
+    <t>Oliwia Górska</t>
+  </si>
+  <si>
+    <t>Filip Kaczmarek</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
   </si>
   <si>
     <t>Anna Malinowska</t>
   </si>
   <si>
-    <t>16.11.1984</t>
-  </si>
-  <si>
-    <t>Mikołaj Krawczyk</t>
-  </si>
-  <si>
-    <t>21.10.1999</t>
-  </si>
-  <si>
-    <t>Filip Krawczyk</t>
-  </si>
-  <si>
-    <t>05.01.1998</t>
-  </si>
-  <si>
-    <t>Jakub Wojciechowski</t>
-  </si>
-  <si>
-    <t>01.10.2004</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Jakub Grabowski</t>
+  </si>
+  <si>
+    <t>Maja Maciejewska</t>
+  </si>
+  <si>
+    <t>Aleksander Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Zawadzka</t>
+  </si>
+  <si>
+    <t>Julia Bednarska</t>
+  </si>
+  <si>
+    <t>Wojciech Wiśniewski</t>
+  </si>
+  <si>
+    <t>Adam Mazur</t>
+  </si>
+  <si>
+    <t>Jakub Zieliński</t>
+  </si>
+  <si>
+    <t>Julia Borkowska</t>
+  </si>
+  <si>
+    <t>Antoni Kowalski</t>
+  </si>
+  <si>
+    <t>Zuzanna Maciejewska</t>
+  </si>
+  <si>
+    <t>Amelia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Antoni Kozłowski</t>
+  </si>
+  <si>
+    <t>Kacper Kowalczyk</t>
+  </si>
+  <si>
+    <t>Hanna Olszewska</t>
+  </si>
+  <si>
+    <t>Mikołaj Woźniak</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -478,151 +503,151 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
     <t>kwiecień</t>
   </si>
   <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
+    <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
     <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -694,7 +719,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,12 +742,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -753,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -764,13 +783,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1077,7 +1095,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1185,16 +1203,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1203,19 +1221,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
         <v>3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1227,16 +1245,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
         <v>6</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1245,19 +1263,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>6</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1266,19 +1284,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
         <v>6</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>5</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1287,19 +1305,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>6</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1308,19 +1326,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
         <v>5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1329,19 +1347,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>6</v>
-      </c>
       <c r="D24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
         <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1350,19 +1368,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1371,19 +1389,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
         <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>6</v>
-      </c>
-      <c r="F26" s="3">
-        <v>6</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1392,19 +1410,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3">
         <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1413,19 +1431,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
         <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1438,6 +1456,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1471,7 +1495,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1491,7 +1515,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1501,29 +1525,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1531,99 +1555,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>6.4</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8.5</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>5.5</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.2</v>
       </c>
       <c r="D14" s="3">
-        <v>9</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.1</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6.3</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4.4</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.5</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5.7</v>
       </c>
       <c r="D17" s="3">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.8</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3.7</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1640,10 +1664,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1656,7 +1680,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1681,27 +1705,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1709,85 +1733,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1.67</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3.19</v>
       </c>
       <c r="C15" s="3">
-        <v>6</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>12.68</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>30.84</v>
       </c>
       <c r="C16" s="3">
-        <v>36</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>21.42</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3.77</v>
       </c>
       <c r="C17" s="3">
-        <v>40</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>12.14</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>8.09</v>
       </c>
       <c r="C18" s="3">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>28.9</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>26.98</v>
       </c>
       <c r="C19" s="3">
-        <v>33</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1796,8 +1820,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1805,85 +1829,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>16.039999999999999</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3.93</v>
       </c>
       <c r="C24" s="3">
-        <v>7</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>16.59</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>30.6</v>
       </c>
       <c r="C25" s="3">
-        <v>26</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>1.56</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>4.31</v>
       </c>
       <c r="C26" s="3">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>5.87</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>12.7</v>
       </c>
       <c r="C27" s="3">
-        <v>40</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>22.65</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>8.71</v>
       </c>
       <c r="C28" s="3">
-        <v>47</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1892,8 +1916,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1901,89 +1925,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>19</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2.63</v>
       </c>
       <c r="C33" s="3">
-        <v>24</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>2.53</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>17.059999999999999</v>
       </c>
       <c r="C34" s="3">
-        <v>22</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>12.59</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>24.010000000000002</v>
       </c>
       <c r="C35" s="3">
         <v>40</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>10.82</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>23.78</v>
       </c>
       <c r="C36" s="3">
-        <v>30</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>14.91</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>15.32</v>
       </c>
       <c r="C37" s="3">
-        <v>23</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2026,108 +2058,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5</v>
       </c>
       <c r="G12" s="3">
         <v>3</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
         <v>4</v>
@@ -2138,31 +2170,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
         <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2170,31 +2202,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="H14" s="3">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3</v>
-      </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2202,16 +2234,16 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
         <v>4</v>
@@ -2226,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2234,31 +2266,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
       <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
       </c>
       <c r="G16" s="3">
         <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2266,28 +2298,28 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
         <v>6</v>
@@ -2297,7 +2329,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2313,7 +2345,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2358,227 +2390,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>93</v>
+      <c r="A1" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="7">
-        <v>7148</v>
+      <c r="B11" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9130</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="7">
-        <v>11096</v>
+      <c r="B12" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="8">
+        <v>8616</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="7">
-        <v>13263</v>
+        <v>105</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3914</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3122</v>
+        <v>106</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9206</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4662</v>
+        <v>107</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5871</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9501</v>
+        <v>108</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C16" s="8">
+        <v>12269</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="7">
-        <v>13763</v>
+        <v>109</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4041</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3930</v>
+        <v>105</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C18" s="8">
+        <v>11344</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="7">
-        <v>12580</v>
+        <v>110</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C19" s="8">
+        <v>12722</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6375</v>
+        <v>111</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4482</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4126</v>
+        <v>112</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4220</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="7">
-        <v>11284</v>
+        <v>113</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C22" s="8">
+        <v>10083</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="7">
-        <v>3281</v>
+        <v>114</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C23" s="8">
+        <v>14992</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="7">
-        <v>14347</v>
+        <v>115</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C24" s="8">
+        <v>11327</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="17" t="s">
-        <v>130</v>
+      <c r="A27" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2595,10 +2627,239 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A10" sqref="A10:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="3">
+        <v>164</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="3">
+        <v>142</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="3">
+        <v>156</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="3">
+        <v>101</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="3">
+        <v>92</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="3">
+        <v>125</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="3">
+        <v>142</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="3">
+        <v>93</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="3">
+        <v>163</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="3">
+        <v>156</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="3">
+        <v>144</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="3">
+        <v>130</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="3">
+        <v>123</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="3">
+        <v>135</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="3">
+        <v>112</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="3">
+        <v>95</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="3">
+        <v>185</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="3">
+        <v>164</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2613,86 +2874,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>134</v>
+      <c r="A1" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2700,22 +2961,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1086</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1477</v>
+        <v>161</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1037</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1400</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2723,22 +2984,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1419</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1916</v>
+        <v>165</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1466</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1657</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2746,22 +3007,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="7">
-        <v>624</v>
-      </c>
-      <c r="E18" s="7">
-        <v>792</v>
+        <v>169</v>
+      </c>
+      <c r="D18" s="8">
+        <v>658</v>
+      </c>
+      <c r="E18" s="8">
+        <v>901</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2769,22 +3030,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="7">
-        <v>513</v>
-      </c>
-      <c r="E19" s="7">
-        <v>590</v>
+        <v>172</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1183</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1502</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2792,22 +3053,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1330</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1716</v>
+        <v>176</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1490</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1773</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2815,22 +3076,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="7">
-        <v>884</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1220</v>
+        <v>179</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1053</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1327</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2838,22 +3099,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1067</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1419</v>
+        <v>172</v>
+      </c>
+      <c r="D22" s="8">
+        <v>776</v>
+      </c>
+      <c r="E22" s="8">
+        <v>877</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2861,22 +3122,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1223</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1541</v>
+        <v>183</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1214</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1590</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2884,22 +3145,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1340</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1581</v>
+        <v>186</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1194</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1528</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2910,19 +3171,19 @@
         <v>178</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="7">
-        <v>735</v>
-      </c>
-      <c r="E25" s="7">
-        <v>948</v>
+        <v>188</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1009</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1413</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2930,22 +3191,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1301</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1743</v>
+        <v>190</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1091</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1527</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2953,22 +3214,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1047</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1434</v>
+        <v>192</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1188</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1604</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2976,22 +3237,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="7">
-        <v>965</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1332</v>
+      <c r="D28" s="8">
+        <v>1447</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1635</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2999,22 +3260,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1338</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1619</v>
+        <v>186</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1059</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1313</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3022,22 +3283,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="7">
-        <v>625</v>
-      </c>
-      <c r="E30" s="7">
-        <v>731</v>
+        <v>195</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1014</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1166</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3045,22 +3306,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1138</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1559</v>
+        <v>197</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1457</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1836</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3068,22 +3329,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1396</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1536</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="D32" s="7">
-        <v>718</v>
-      </c>
-      <c r="E32" s="7">
-        <v>926</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3091,22 +3352,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1151</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1600</v>
+        <v>201</v>
+      </c>
+      <c r="D33" s="8">
+        <v>877</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1017</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3114,22 +3375,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1049</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1290</v>
+        <v>204</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1194</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1528</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3137,22 +3398,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="7">
-        <v>1187</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1353</v>
+      <c r="D35" s="8">
+        <v>1329</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1621</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3160,22 +3421,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1333</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1506</v>
+        <v>206</v>
+      </c>
+      <c r="D36" s="8">
+        <v>727</v>
+      </c>
+      <c r="E36" s="8">
+        <v>880</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3183,22 +3444,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="7">
-        <v>696</v>
-      </c>
-      <c r="E37" s="7">
-        <v>898</v>
+        <v>208</v>
+      </c>
+      <c r="D37" s="8">
+        <v>877</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1131</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3206,22 +3467,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1109</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1453</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1286</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1453</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3229,22 +3490,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1080</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1426</v>
+        <v>161</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1128</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1286</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3252,22 +3513,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1205</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1350</v>
+        <v>208</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1498</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1858</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3275,22 +3536,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1212</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1685</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="7">
-        <v>637</v>
-      </c>
-      <c r="E41" s="7">
-        <v>885</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="G41" s="3" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3298,58 +3559,81 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="7">
-        <v>822</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1118</v>
+        <v>201</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1201</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1429</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="17" t="s">
-        <v>130</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="8">
+        <v>807</v>
+      </c>
+      <c r="E43" s="8">
+        <v>944</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="6"/>
+      <c r="A46" s="16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
